--- a/stock_historical_data/1wk/JINDALSTEL.NS.xlsx
+++ b/stock_historical_data/1wk/JINDALSTEL.NS.xlsx
@@ -72709,7 +72709,9 @@
       <c r="Q1290" t="n">
         <v>0</v>
       </c>
-      <c r="R1290" t="inlineStr"/>
+      <c r="R1290" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JINDALSTEL.NS.xlsx
+++ b/stock_historical_data/1wk/JINDALSTEL.NS.xlsx
@@ -68890,7 +68890,9 @@
       <c r="P1291" t="n">
         <v>0</v>
       </c>
-      <c r="Q1291" t="inlineStr"/>
+      <c r="Q1291" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JINDALSTEL.NS.xlsx
+++ b/stock_historical_data/1wk/JINDALSTEL.NS.xlsx
@@ -72821,7 +72821,9 @@
       <c r="Q1292" t="n">
         <v>0</v>
       </c>
-      <c r="R1292" t="inlineStr"/>
+      <c r="R1292" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JINDALSTEL.NS.xlsx
+++ b/stock_historical_data/1wk/JINDALSTEL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1292"/>
+  <dimension ref="A1:R1294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72825,6 +72825,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>1052.449951171875</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>1097</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>1024.199951171875</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>1077.25</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>1077.25</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>11028432</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1293" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>1077.5</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>1081</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>1029.150024414062</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>1044.400024414062</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>1044.400024414062</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>10719875</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1294" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1294" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/JINDALSTEL.NS.xlsx
+++ b/stock_historical_data/1wk/JINDALSTEL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1294"/>
+  <dimension ref="A1:R1306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -72757,7 +72757,7 @@
         <v>23</v>
       </c>
       <c r="O1291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1291" t="n">
         <v>0</v>
@@ -72869,7 +72869,7 @@
         <v>25</v>
       </c>
       <c r="O1293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1293" t="n">
         <v>0</v>
@@ -72877,7 +72877,9 @@
       <c r="Q1293" t="n">
         <v>0</v>
       </c>
-      <c r="R1293" t="inlineStr"/>
+      <c r="R1293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1294">
       <c r="A1294" s="2" t="n">
@@ -72931,7 +72933,657 @@
       <c r="Q1294" t="n">
         <v>0</v>
       </c>
-      <c r="R1294" t="inlineStr"/>
+      <c r="R1294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>1075.199951171875</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>1038.099975585938</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>1050.5</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>1048.306030273438</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>8231119</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1295" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>1050.550048828125</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>992</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>1013.900024414062</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>1011.782470703125</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>7784719</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1296" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>1017.900024414062</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>1028</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>944.4500122070312</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>946.3499755859375</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>944.3734741210938</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>10563588</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1297" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1297" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>942</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>974.9500122070312</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>918.9000244140625</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>972.3499755859375</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>970.3191528320312</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>14415482</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1298" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>979.5</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>1006.650024414062</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>953.1500244140625</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>956.75</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>954.7517700195312</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>7020870</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1299" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1299" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>937.9000244140625</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>949.8499755859375</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>903.4500122070312</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>916.2000122070312</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>914.2864990234375</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>12074974</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1300" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>914.9500122070312</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>941.25</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>896</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>934.5</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>932.5482788085938</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>8698808</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1301" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1301" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>944.2999877929688</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>969</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>931.1500244140625</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>959.8499755859375</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>957.8452758789062</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>5073889</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1302" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>965</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>987.8499755859375</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>948.5499877929688</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>970.4000244140625</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>970.4000244140625</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>6816933</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1303" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>975</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>980.8499755859375</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>929.0499877929688</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>953.9500122070312</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>953.9500122070312</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>5701646</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1304" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>953.9500122070312</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>1035.699951171875</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>933</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>1031.099975585938</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>1031.099975585938</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>11263414</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1305" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>1073.699951171875</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>997.5499877929688</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>1009.400024414062</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>1009.400024414062</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>13910524</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1306" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1306" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JINDALSTEL.NS.xlsx
+++ b/stock_historical_data/1wk/JINDALSTEL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1306"/>
+  <dimension ref="A1:R1333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -72989,7 +72989,9 @@
       <c r="Q1295" t="n">
         <v>0</v>
       </c>
-      <c r="R1295" t="inlineStr"/>
+      <c r="R1295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1296">
       <c r="A1296" s="2" t="n">
@@ -73043,7 +73045,9 @@
       <c r="Q1296" t="n">
         <v>0</v>
       </c>
-      <c r="R1296" t="inlineStr"/>
+      <c r="R1296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1297">
       <c r="A1297" s="2" t="n">
@@ -73097,7 +73101,9 @@
       <c r="Q1297" t="n">
         <v>1</v>
       </c>
-      <c r="R1297" t="inlineStr"/>
+      <c r="R1297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1298">
       <c r="A1298" s="2" t="n">
@@ -73151,7 +73157,9 @@
       <c r="Q1298" t="n">
         <v>0</v>
       </c>
-      <c r="R1298" t="inlineStr"/>
+      <c r="R1298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1299">
       <c r="A1299" s="2" t="n">
@@ -73205,7 +73213,9 @@
       <c r="Q1299" t="n">
         <v>2</v>
       </c>
-      <c r="R1299" t="inlineStr"/>
+      <c r="R1299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1300">
       <c r="A1300" s="2" t="n">
@@ -73259,7 +73269,9 @@
       <c r="Q1300" t="n">
         <v>0</v>
       </c>
-      <c r="R1300" t="inlineStr"/>
+      <c r="R1300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1301">
       <c r="A1301" s="2" t="n">
@@ -73313,7 +73325,9 @@
       <c r="Q1301" t="n">
         <v>0</v>
       </c>
-      <c r="R1301" t="inlineStr"/>
+      <c r="R1301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1302">
       <c r="A1302" s="2" t="n">
@@ -73367,7 +73381,9 @@
       <c r="Q1302" t="n">
         <v>0</v>
       </c>
-      <c r="R1302" t="inlineStr"/>
+      <c r="R1302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1303">
       <c r="A1303" s="2" t="n">
@@ -73421,7 +73437,9 @@
       <c r="Q1303" t="n">
         <v>0</v>
       </c>
-      <c r="R1303" t="inlineStr"/>
+      <c r="R1303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1304">
       <c r="A1304" s="2" t="n">
@@ -73475,7 +73493,9 @@
       <c r="Q1304" t="n">
         <v>0</v>
       </c>
-      <c r="R1304" t="inlineStr"/>
+      <c r="R1304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1305">
       <c r="A1305" s="2" t="n">
@@ -73529,7 +73549,9 @@
       <c r="Q1305" t="n">
         <v>0</v>
       </c>
-      <c r="R1305" t="inlineStr"/>
+      <c r="R1305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1306">
       <c r="A1306" s="2" t="n">
@@ -73575,7 +73597,7 @@
         <v>38</v>
       </c>
       <c r="O1306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1306" t="n">
         <v>0</v>
@@ -73583,7 +73605,1413 @@
       <c r="Q1306" t="n">
         <v>0</v>
       </c>
-      <c r="R1306" t="inlineStr"/>
+      <c r="R1306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>1054.75</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>1008.599975585938</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>1028.050048828125</v>
+      </c>
+      <c r="F1307" t="inlineStr"/>
+      <c r="G1307" t="n">
+        <v>11695833</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1307" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1307" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1307" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>1038</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>1069</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>1013.400024414062</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>1021.099975585938</v>
+      </c>
+      <c r="F1308" t="inlineStr"/>
+      <c r="G1308" t="n">
+        <v>13771360</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1308" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>1026.050048828125</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>1034.199951171875</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>965</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>1005.849975585938</v>
+      </c>
+      <c r="F1309" t="inlineStr"/>
+      <c r="G1309" t="n">
+        <v>9745060</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1309" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>1006.049987792969</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>1017.099975585938</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>915</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>964.5</v>
+      </c>
+      <c r="F1310" t="inlineStr"/>
+      <c r="G1310" t="n">
+        <v>23947379</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1310" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>969.1500244140625</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>973.6500244140625</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>882</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>899.0499877929688</v>
+      </c>
+      <c r="F1311" t="inlineStr"/>
+      <c r="G1311" t="n">
+        <v>11020013</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1311" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>899</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>935.4000244140625</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>891.5499877929688</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>929.5</v>
+      </c>
+      <c r="F1312" t="inlineStr"/>
+      <c r="G1312" t="n">
+        <v>4738108</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1312" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>932</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>968.9500122070312</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>897.7999877929688</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>928.0499877929688</v>
+      </c>
+      <c r="F1313" t="inlineStr"/>
+      <c r="G1313" t="n">
+        <v>9918770</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1313" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>923</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>929.7999877929688</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>855</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>877.4000244140625</v>
+      </c>
+      <c r="F1314" t="inlineStr"/>
+      <c r="G1314" t="n">
+        <v>8100624</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1314" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1314" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>880</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>903.9500122070312</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>857.3499755859375</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>878.9500122070312</v>
+      </c>
+      <c r="F1315" t="inlineStr"/>
+      <c r="G1315" t="n">
+        <v>5159454</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1315" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>887.7000122070312</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>912.5</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>870.0499877929688</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>906.4500122070312</v>
+      </c>
+      <c r="F1316" t="inlineStr"/>
+      <c r="G1316" t="n">
+        <v>10300453</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1316" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>906</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>951.75</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>897.2000122070312</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>949.0999755859375</v>
+      </c>
+      <c r="F1317" t="inlineStr"/>
+      <c r="G1317" t="n">
+        <v>6110055</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1317" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>950.0499877929688</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>1011.450012207031</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>945.2000122070312</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>998.75</v>
+      </c>
+      <c r="F1318" t="inlineStr"/>
+      <c r="G1318" t="n">
+        <v>10233459</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1318" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1318" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>993</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>1000.400024414062</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>904</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>908.0499877929688</v>
+      </c>
+      <c r="F1319" t="inlineStr"/>
+      <c r="G1319" t="n">
+        <v>5079634</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1319" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>925</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>949.4500122070312</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>883.3499755859375</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>923.5499877929688</v>
+      </c>
+      <c r="F1320" t="inlineStr"/>
+      <c r="G1320" t="n">
+        <v>6811657</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1320" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1320" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>920.7000122070312</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>962.0999755859375</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>909</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>957.8499755859375</v>
+      </c>
+      <c r="F1321" t="inlineStr"/>
+      <c r="G1321" t="n">
+        <v>7819549</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1321" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>957.7999877929688</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>957.7999877929688</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>911.0499877929688</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>917.7000122070312</v>
+      </c>
+      <c r="F1322" t="inlineStr"/>
+      <c r="G1322" t="n">
+        <v>7275865</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>913.0499877929688</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>932.5</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>871.0499877929688</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>924.6500244140625</v>
+      </c>
+      <c r="F1323" t="inlineStr"/>
+      <c r="G1323" t="n">
+        <v>9005547</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>927.7999877929688</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>940</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>877.3499755859375</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>882.7999877929688</v>
+      </c>
+      <c r="F1324" t="inlineStr"/>
+      <c r="G1324" t="n">
+        <v>6803783</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1324" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>876.5999755859375</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>876.5999755859375</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>723.3499755859375</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>776.3499755859375</v>
+      </c>
+      <c r="F1325" t="inlineStr"/>
+      <c r="G1325" t="n">
+        <v>32576377</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>769</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>848.7000122070312</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>750.4000244140625</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>844.5499877929688</v>
+      </c>
+      <c r="F1326" t="inlineStr"/>
+      <c r="G1326" t="n">
+        <v>20517870</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>841</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>858</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>801.3499755859375</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>833.2999877929688</v>
+      </c>
+      <c r="F1327" t="inlineStr"/>
+      <c r="G1327" t="n">
+        <v>14005592</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>825</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>887.0999755859375</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>813.3499755859375</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>880.3499755859375</v>
+      </c>
+      <c r="F1328" t="inlineStr"/>
+      <c r="G1328" t="n">
+        <v>11068337</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>868.0999755859375</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>887.4000244140625</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>842.4000244140625</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>856.1500244140625</v>
+      </c>
+      <c r="F1329" t="inlineStr"/>
+      <c r="G1329" t="n">
+        <v>13016188</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>852</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>925.0499877929688</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>842.5499877929688</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>908.9500122070312</v>
+      </c>
+      <c r="F1330" t="inlineStr"/>
+      <c r="G1330" t="n">
+        <v>11651701</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>909</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>933.7999877929688</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>881.5499877929688</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>889.7000122070312</v>
+      </c>
+      <c r="F1331" t="inlineStr"/>
+      <c r="G1331" t="n">
+        <v>8195280</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>892</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>943.75</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>889.7000122070312</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>914.2999877929688</v>
+      </c>
+      <c r="F1332" t="inlineStr"/>
+      <c r="G1332" t="n">
+        <v>7227992</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>921</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>929</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>893.2000122070312</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>912.2999877929688</v>
+      </c>
+      <c r="F1333" t="inlineStr"/>
+      <c r="G1333" t="n">
+        <v>6844204</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
